--- a/099-納品物/003-WBS-納品版.xlsx
+++ b/099-納品物/003-WBS-納品版.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\099-納品物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCC2BA-A07A-4A5C-8477-22F861BF885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61354A40-942F-411F-897C-969BA12B3B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31275" yWindow="2760" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="全体スケジュール (パターン1)" sheetId="13" r:id="rId1"/>
-    <sheet name="全体スケジュール (パターン2） " sheetId="15" r:id="rId2"/>
-    <sheet name="全体スケジュール (サンプル)" sheetId="14" r:id="rId3"/>
+    <sheet name="全体スケジュール" sheetId="13" r:id="rId1"/>
+    <sheet name="全体スケジュール (サンプル)" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'全体スケジュール (サンプル)'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'全体スケジュール (パターン1)'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (パターン2） '!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">全体スケジュール!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'全体スケジュール (サンプル)'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -508,6 +506,36 @@
     <t>レビュー日</t>
     <rPh sb="4" eb="5">
       <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>予定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>購入・会員機能単体試験</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="3" eb="11">
+      <t>カイインキノウタンタイシケン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索機能単体試験</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>タンタイシケン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -622,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1697,11 +1725,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1910,19 +1962,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2007,9 +2050,6 @@
     <xf numFmtId="49" fontId="2" fillId="10" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2026,9 +2066,6 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2036,6 +2073,48 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2050,59 +2129,186 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2164,254 +2370,86 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2588,11 +2626,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2608,10 +2641,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 8">
+        <xdr:cNvPr id="6" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1461C281-8B75-4A05-A931-9DF98AF59EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E3E242-83B7-4CBE-BDB1-9CC449D4C7CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,10 +2716,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 13">
+        <xdr:cNvPr id="7" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9B1559-240D-44EB-ADE7-5FCBD43269B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDD39B0-B2C7-4DCB-B761-8F7FEABB5854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2779,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3276,13 +3309,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO45"/>
+  <dimension ref="A1:BO50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="R32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3299,94 +3332,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="153" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="138">
+      <c r="G1" s="190">
         <v>45536</v>
       </c>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="139"/>
-      <c r="AG1" s="139"/>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="139"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="138">
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="192"/>
+      <c r="AK1" s="190">
         <v>45566</v>
       </c>
-      <c r="AL1" s="139"/>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="139"/>
-      <c r="AV1" s="139"/>
-      <c r="AW1" s="139"/>
-      <c r="AX1" s="139"/>
-      <c r="AY1" s="139"/>
-      <c r="AZ1" s="139"/>
-      <c r="BA1" s="139"/>
-      <c r="BB1" s="139"/>
-      <c r="BC1" s="139"/>
-      <c r="BD1" s="139"/>
-      <c r="BE1" s="139"/>
-      <c r="BF1" s="139"/>
-      <c r="BG1" s="139"/>
-      <c r="BH1" s="139"/>
-      <c r="BI1" s="139"/>
-      <c r="BJ1" s="139"/>
-      <c r="BK1" s="139"/>
-      <c r="BL1" s="139"/>
-      <c r="BM1" s="139"/>
-      <c r="BN1" s="140"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
+      <c r="AR1" s="191"/>
+      <c r="AS1" s="191"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="191"/>
+      <c r="AY1" s="191"/>
+      <c r="AZ1" s="191"/>
+      <c r="BA1" s="191"/>
+      <c r="BB1" s="191"/>
+      <c r="BC1" s="191"/>
+      <c r="BD1" s="191"/>
+      <c r="BE1" s="191"/>
+      <c r="BF1" s="191"/>
+      <c r="BG1" s="191"/>
+      <c r="BH1" s="191"/>
+      <c r="BI1" s="191"/>
+      <c r="BJ1" s="191"/>
+      <c r="BK1" s="191"/>
+      <c r="BL1" s="191"/>
+      <c r="BM1" s="191"/>
+      <c r="BN1" s="192"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="156"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3628,12 +3661,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="157"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3724,7 +3757,7 @@
       <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="92" t="s">
+      <c r="AK3" s="89" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3733,19 +3766,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="93" t="s">
+      <c r="AN3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="93" t="s">
+      <c r="AP3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="93" t="s">
+      <c r="AR3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3754,19 +3787,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="93" t="s">
+      <c r="AU3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="93" t="s">
+      <c r="AW3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="93" t="s">
+      <c r="AY3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3775,19 +3808,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="93" t="s">
+      <c r="BB3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="93" t="s">
+      <c r="BD3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="93" t="s">
+      <c r="BF3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3796,19 +3829,19 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="93" t="s">
+      <c r="BI3" s="90" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="93" t="s">
+      <c r="BK3" s="90" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="93" t="s">
+      <c r="BM3" s="90" t="s">
         <v>20</v>
       </c>
       <c r="BN3" s="70" t="s">
@@ -3816,20 +3849,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="158">
+      <c r="A4" s="185">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="164" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="166"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3837,7 +3870,7 @@
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="110"/>
+      <c r="N4" s="106"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3860,7 +3893,7 @@
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
       <c r="AJ4" s="71"/>
-      <c r="AK4" s="82"/>
+      <c r="AK4" s="79"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3892,16 +3925,16 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="115"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="110"/>
       <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
@@ -3927,8 +3960,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="83"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="80"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3957,29 +3990,29 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="72"/>
+      <c r="BN5" s="126"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="168">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="180" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="181"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="51"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="137"/>
+      <c r="I6" s="124"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="110"/>
+      <c r="N6" s="106"/>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
@@ -4001,8 +4034,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="84"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="81"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -4031,20 +4064,20 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="73"/>
+      <c r="BN6" s="72"/>
     </row>
     <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="104"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="68"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="17"/>
       <c r="M7" s="23"/>
       <c r="N7" s="68"/>
@@ -4069,8 +4102,8 @@
       <c r="AG7" s="17"/>
       <c r="AH7" s="23"/>
       <c r="AI7" s="8"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="107"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="103"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="17"/>
@@ -4099,23 +4132,23 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="74"/>
+      <c r="BN7" s="125"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="183">
+      <c r="A8" s="142">
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="180" t="s">
+      <c r="D8" s="152"/>
+      <c r="E8" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="214"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="50"/>
       <c r="H8" s="62"/>
       <c r="I8" s="62"/>
@@ -4131,7 +4164,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
-      <c r="V8" s="110"/>
+      <c r="V8" s="106"/>
       <c r="W8" s="30"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
@@ -4145,8 +4178,8 @@
       <c r="AG8" s="16"/>
       <c r="AH8" s="22"/>
       <c r="AI8" s="9"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="83"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="80"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="16"/>
@@ -4159,7 +4192,7 @@
       <c r="AU8" s="16"/>
       <c r="AV8" s="22"/>
       <c r="AW8" s="22"/>
-      <c r="AX8" s="108"/>
+      <c r="AX8" s="104"/>
       <c r="AY8" s="9"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
@@ -4175,15 +4208,15 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="75"/>
+      <c r="BN8" s="73"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="159"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="172"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
       <c r="E9" s="165"/>
-      <c r="F9" s="201"/>
+      <c r="F9" s="145"/>
       <c r="G9" s="51"/>
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
@@ -4213,8 +4246,8 @@
       <c r="AG9" s="13"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="7"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="84"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="81"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
       <c r="AN9" s="13"/>
@@ -4243,21 +4276,21 @@
       <c r="BK9" s="7"/>
       <c r="BL9" s="7"/>
       <c r="BM9" s="7"/>
-      <c r="BN9" s="73"/>
+      <c r="BN9" s="72"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="168">
+      <c r="A10" s="142">
         <v>4</v>
       </c>
       <c r="B10" s="36"/>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="180" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="200"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="51"/>
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
@@ -4273,7 +4306,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-      <c r="V10" s="110"/>
+      <c r="V10" s="106"/>
       <c r="W10" s="30"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
@@ -4287,8 +4320,8 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="7"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="84"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="81"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="13"/>
@@ -4317,15 +4350,15 @@
       <c r="BK10" s="7"/>
       <c r="BL10" s="7"/>
       <c r="BM10" s="7"/>
-      <c r="BN10" s="73"/>
+      <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="159"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="201"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="51"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
@@ -4355,8 +4388,8 @@
       <c r="AG11" s="13"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="7"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="84"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="81"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="13"/>
@@ -4385,21 +4418,21 @@
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
-      <c r="BN11" s="73"/>
+      <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="168">
+      <c r="A12" s="142">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="186" t="s">
+      <c r="D12" s="152"/>
+      <c r="E12" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="200"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4409,13 +4442,13 @@
       <c r="M12" s="19"/>
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
-      <c r="P12" s="30"/>
+      <c r="P12" s="63"/>
       <c r="Q12" s="30"/>
       <c r="R12" s="30"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="110"/>
+      <c r="V12" s="106"/>
       <c r="W12" s="30"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
@@ -4429,8 +4462,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="84"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="81"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -4459,15 +4492,15 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="73"/>
+      <c r="BN12" s="72"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="159"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="210"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="146"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4475,7 +4508,7 @@
       <c r="K13" s="66"/>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="95"/>
+      <c r="N13" s="92"/>
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
       <c r="Q13" s="66"/>
@@ -4497,8 +4530,8 @@
       <c r="AG13" s="44"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="43"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="86"/>
+      <c r="AJ13" s="127"/>
+      <c r="AK13" s="83"/>
       <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
       <c r="AN13" s="44"/>
@@ -4527,23 +4560,23 @@
       <c r="BK13" s="43"/>
       <c r="BL13" s="43"/>
       <c r="BM13" s="43"/>
-      <c r="BN13" s="96"/>
+      <c r="BN13" s="93"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="168">
+      <c r="A14" s="142">
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="165" t="s">
+      <c r="D14" s="152"/>
+      <c r="E14" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="174"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4566,15 +4599,15 @@
       <c r="Z14" s="16"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="111"/>
+      <c r="AC14" s="107"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="22"/>
       <c r="AI14" s="9"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="83"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="80"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="16"/>
@@ -4603,15 +4636,15 @@
       <c r="BK14" s="9"/>
       <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
-      <c r="BN14" s="72"/>
+      <c r="BN14" s="126"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="159"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="175"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4641,8 +4674,8 @@
       <c r="AG15" s="16"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="9"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="83"/>
+      <c r="AJ15" s="126"/>
+      <c r="AK15" s="80"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="16"/>
@@ -4671,21 +4704,21 @@
       <c r="BK15" s="9"/>
       <c r="BL15" s="9"/>
       <c r="BM15" s="9"/>
-      <c r="BN15" s="72"/>
+      <c r="BN15" s="126"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="168">
+      <c r="A16" s="142">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="186" t="s">
+      <c r="D16" s="162"/>
+      <c r="E16" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="188"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4708,15 +4741,15 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="110"/>
+      <c r="AC16" s="106"/>
       <c r="AD16" s="30"/>
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="9"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="83"/>
+      <c r="AJ16" s="126"/>
+      <c r="AK16" s="80"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4745,15 +4778,15 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="73"/>
+      <c r="BN16" s="72"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="159"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="174"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4779,12 +4812,12 @@
       <c r="AC17" s="24"/>
       <c r="AD17" s="43"/>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="101"/>
+      <c r="AF17" s="98"/>
       <c r="AG17" s="25"/>
       <c r="AH17" s="23"/>
       <c r="AI17" s="8"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="83"/>
+      <c r="AJ17" s="93"/>
+      <c r="AK17" s="80"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="25"/>
@@ -4813,23 +4846,23 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="74"/>
+      <c r="BN17" s="125"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="168">
+      <c r="A18" s="142">
         <v>8</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="189" t="s">
+      <c r="C18" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="190"/>
-      <c r="E18" s="164" t="s">
+      <c r="D18" s="137"/>
+      <c r="E18" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="191"/>
+      <c r="F18" s="177"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4858,9 +4891,9 @@
       <c r="AF18" s="9"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="111"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="120"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="111"/>
       <c r="AL18" s="6"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="15"/>
@@ -4889,15 +4922,15 @@
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
       <c r="BM18" s="6"/>
-      <c r="BN18" s="75"/>
+      <c r="BN18" s="73"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="159"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="175"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="178"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4920,15 +4953,15 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
-      <c r="AC19" s="135"/>
+      <c r="AC19" s="123"/>
       <c r="AD19" s="24"/>
       <c r="AE19" s="24"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="24"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="85"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="82"/>
       <c r="AL19" s="24"/>
       <c r="AM19" s="24"/>
       <c r="AN19" s="25"/>
@@ -4957,21 +4990,21 @@
       <c r="BK19" s="24"/>
       <c r="BL19" s="24"/>
       <c r="BM19" s="24"/>
-      <c r="BN19" s="74"/>
+      <c r="BN19" s="125"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="168">
+      <c r="A20" s="142">
         <v>9</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="180" t="s">
+      <c r="D20" s="162"/>
+      <c r="E20" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="188"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4994,21 +5027,21 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="94"/>
+      <c r="AC20" s="91"/>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
-      <c r="AI20" s="110"/>
-      <c r="AJ20" s="73"/>
+      <c r="AI20" s="106"/>
+      <c r="AJ20" s="95"/>
       <c r="AK20" s="24"/>
       <c r="AL20" s="24"/>
       <c r="AM20" s="24"/>
       <c r="AN20" s="13"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
@@ -5031,15 +5064,15 @@
       <c r="BK20" s="7"/>
       <c r="BL20" s="7"/>
       <c r="BM20" s="7"/>
-      <c r="BN20" s="73"/>
+      <c r="BN20" s="72"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="159"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="175"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -5062,15 +5095,15 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
-      <c r="AC21" s="134"/>
+      <c r="AC21" s="122"/>
       <c r="AD21" s="24"/>
       <c r="AE21" s="24"/>
       <c r="AF21" s="24"/>
       <c r="AG21" s="25"/>
       <c r="AH21" s="26"/>
       <c r="AI21" s="24"/>
-      <c r="AJ21" s="73"/>
-      <c r="AK21" s="85"/>
+      <c r="AJ21" s="72"/>
+      <c r="AK21" s="82"/>
       <c r="AL21" s="24"/>
       <c r="AM21" s="24"/>
       <c r="AN21" s="25"/>
@@ -5099,21 +5132,21 @@
       <c r="BK21" s="24"/>
       <c r="BL21" s="24"/>
       <c r="BM21" s="24"/>
-      <c r="BN21" s="74"/>
+      <c r="BN21" s="125"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="168">
+      <c r="A22" s="142">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="187" t="s">
+      <c r="D22" s="162"/>
+      <c r="E22" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="188"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -5136,21 +5169,21 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
-      <c r="AC22" s="94"/>
+      <c r="AC22" s="91"/>
       <c r="AD22" s="24"/>
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
       <c r="AG22" s="25"/>
       <c r="AH22" s="26"/>
-      <c r="AI22" s="110"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="85"/>
+      <c r="AI22" s="106"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="82"/>
       <c r="AL22" s="24"/>
       <c r="AM22" s="24"/>
       <c r="AN22" s="25"/>
       <c r="AO22" s="26"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
       <c r="AR22" s="64"/>
       <c r="AS22" s="64"/>
       <c r="AT22" s="64"/>
@@ -5173,15 +5206,15 @@
       <c r="BK22" s="64"/>
       <c r="BL22" s="64"/>
       <c r="BM22" s="64"/>
-      <c r="BN22" s="77"/>
+      <c r="BN22" s="74"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="159"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="193"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="180"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5204,15 +5237,15 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
-      <c r="AC23" s="99"/>
+      <c r="AC23" s="96"/>
       <c r="AD23" s="68"/>
       <c r="AE23" s="68"/>
       <c r="AF23" s="68"/>
       <c r="AG23" s="17"/>
       <c r="AH23" s="23"/>
       <c r="AI23" s="68"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="88"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="85"/>
       <c r="AL23" s="68"/>
       <c r="AM23" s="68"/>
       <c r="AN23" s="17"/>
@@ -5241,23 +5274,23 @@
       <c r="BK23" s="68"/>
       <c r="BL23" s="68"/>
       <c r="BM23" s="68"/>
-      <c r="BN23" s="78"/>
+      <c r="BN23" s="75"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="168">
+      <c r="A24" s="142">
         <v>11</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="189" t="s">
+      <c r="C24" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="190"/>
-      <c r="E24" s="164" t="s">
+      <c r="D24" s="137"/>
+      <c r="E24" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="191"/>
+      <c r="F24" s="177"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5287,14 +5320,14 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="60"/>
-      <c r="AJ24" s="112"/>
+      <c r="AJ24" s="126"/>
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="63"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="60"/>
       <c r="AR24" s="65"/>
       <c r="AS24" s="65"/>
       <c r="AT24" s="65"/>
@@ -5317,24 +5350,22 @@
       <c r="BK24" s="65"/>
       <c r="BL24" s="65"/>
       <c r="BM24" s="65"/>
-      <c r="BN24" s="79"/>
+      <c r="BN24" s="76"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="159"/>
-      <c r="B25" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="175"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="178"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="97"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="63"/>
       <c r="O25" s="63"/>
       <c r="P25" s="63"/>
@@ -5348,7 +5379,7 @@
       <c r="X25" s="63"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="97"/>
+      <c r="AA25" s="94"/>
       <c r="AB25" s="19"/>
       <c r="AC25" s="63"/>
       <c r="AD25" s="63"/>
@@ -5357,13 +5388,13 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="63"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="90"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="87"/>
       <c r="AL25" s="63"/>
       <c r="AM25" s="63"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="115"/>
+      <c r="AP25" s="110"/>
       <c r="AQ25" s="63"/>
       <c r="AR25" s="63"/>
       <c r="AS25" s="63"/>
@@ -5387,21 +5418,21 @@
       <c r="BK25" s="63"/>
       <c r="BL25" s="63"/>
       <c r="BM25" s="63"/>
-      <c r="BN25" s="80"/>
+      <c r="BN25" s="77"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="168">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="184" t="s">
+      <c r="C26" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="185"/>
-      <c r="E26" s="187" t="s">
+      <c r="D26" s="148"/>
+      <c r="E26" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="213"/>
+      <c r="F26" s="158"/>
       <c r="G26" s="50"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -5431,13 +5462,13 @@
       <c r="AG26" s="16"/>
       <c r="AH26" s="22"/>
       <c r="AI26" s="63"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="121"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="112"/>
       <c r="AL26" s="63"/>
       <c r="AM26" s="63"/>
       <c r="AN26" s="16"/>
       <c r="AO26" s="22"/>
-      <c r="AP26" s="110"/>
+      <c r="AP26" s="109"/>
       <c r="AQ26" s="30"/>
       <c r="AR26" s="63"/>
       <c r="AS26" s="63"/>
@@ -5446,7 +5477,7 @@
       <c r="AV26" s="22"/>
       <c r="AW26" s="22"/>
       <c r="AX26" s="63"/>
-      <c r="AY26" s="62"/>
+      <c r="AY26" s="63"/>
       <c r="AZ26" s="62"/>
       <c r="BA26" s="62"/>
       <c r="BB26" s="16"/>
@@ -5461,17 +5492,17 @@
       <c r="BK26" s="62"/>
       <c r="BL26" s="62"/>
       <c r="BM26" s="62"/>
-      <c r="BN26" s="80"/>
+      <c r="BN26" s="77"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="159"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="201"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="145"/>
       <c r="G27" s="51"/>
-      <c r="H27" s="94"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
@@ -5499,8 +5530,8 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="90"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="87"/>
       <c r="AL27" s="63"/>
       <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
@@ -5529,21 +5560,21 @@
       <c r="BK27" s="63"/>
       <c r="BL27" s="63"/>
       <c r="BM27" s="63"/>
-      <c r="BN27" s="80"/>
+      <c r="BN27" s="77"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="168">
+      <c r="A28" s="142">
         <v>13</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="180" t="s">
+      <c r="D28" s="162"/>
+      <c r="E28" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="200"/>
+      <c r="F28" s="144"/>
       <c r="G28" s="50"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
@@ -5573,13 +5604,13 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="90"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="112"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
+      <c r="AM28" s="63"/>
       <c r="AN28" s="13"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="110"/>
+      <c r="AP28" s="109"/>
       <c r="AQ28" s="30"/>
       <c r="AR28" s="63"/>
       <c r="AS28" s="63"/>
@@ -5603,18 +5634,18 @@
       <c r="BK28" s="63"/>
       <c r="BL28" s="63"/>
       <c r="BM28" s="63"/>
-      <c r="BN28" s="80"/>
+      <c r="BN28" s="77"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="159"/>
+      <c r="A29" s="164"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="201"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="145"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="94"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="13"/>
@@ -5641,8 +5672,8 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="63"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="90"/>
+      <c r="AJ29" s="77"/>
+      <c r="AK29" s="87"/>
       <c r="AL29" s="63"/>
       <c r="AM29" s="63"/>
       <c r="AN29" s="13"/>
@@ -5671,21 +5702,21 @@
       <c r="BK29" s="63"/>
       <c r="BL29" s="63"/>
       <c r="BM29" s="63"/>
-      <c r="BN29" s="80"/>
+      <c r="BN29" s="77"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="168">
+      <c r="A30" s="142">
         <v>14</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="180" t="s">
+      <c r="D30" s="162"/>
+      <c r="E30" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="200"/>
+      <c r="F30" s="144"/>
       <c r="G30" s="50"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5715,8 +5746,8 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="63"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="90"/>
+      <c r="AJ30" s="77"/>
+      <c r="AK30" s="87"/>
       <c r="AL30" s="63"/>
       <c r="AM30" s="63"/>
       <c r="AN30" s="13"/>
@@ -5729,7 +5760,7 @@
       <c r="AU30" s="13"/>
       <c r="AV30" s="19"/>
       <c r="AW30" s="19"/>
-      <c r="AX30" s="110"/>
+      <c r="AX30" s="109"/>
       <c r="AY30" s="30"/>
       <c r="AZ30" s="63"/>
       <c r="BA30" s="63"/>
@@ -5745,17 +5776,17 @@
       <c r="BK30" s="63"/>
       <c r="BL30" s="63"/>
       <c r="BM30" s="63"/>
-      <c r="BN30" s="80"/>
+      <c r="BN30" s="77"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="159"/>
+      <c r="A31" s="164"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="201"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="145"/>
       <c r="G31" s="51"/>
-      <c r="H31" s="94"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -5783,8 +5814,8 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="63"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="90"/>
+      <c r="AJ31" s="77"/>
+      <c r="AK31" s="87"/>
       <c r="AL31" s="63"/>
       <c r="AM31" s="63"/>
       <c r="AN31" s="13"/>
@@ -5797,7 +5828,7 @@
       <c r="AU31" s="13"/>
       <c r="AV31" s="19"/>
       <c r="AW31" s="19"/>
-      <c r="AX31" s="113"/>
+      <c r="AX31" s="108"/>
       <c r="AY31" s="63"/>
       <c r="AZ31" s="63"/>
       <c r="BA31" s="63"/>
@@ -5813,21 +5844,21 @@
       <c r="BK31" s="63"/>
       <c r="BL31" s="63"/>
       <c r="BM31" s="63"/>
-      <c r="BN31" s="80"/>
+      <c r="BN31" s="77"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="168">
+      <c r="A32" s="142">
         <v>15</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="187" t="s">
+      <c r="D32" s="162"/>
+      <c r="E32" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="200"/>
+      <c r="F32" s="144"/>
       <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
@@ -5857,28 +5888,28 @@
       <c r="AG32" s="25"/>
       <c r="AH32" s="26"/>
       <c r="AI32" s="64"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="87"/>
+      <c r="AJ32" s="74"/>
+      <c r="AK32" s="84"/>
       <c r="AL32" s="63"/>
       <c r="AM32" s="64"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
+      <c r="AQ32" s="63"/>
       <c r="AR32" s="30"/>
       <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
+      <c r="AT32" s="63"/>
       <c r="AU32" s="25"/>
       <c r="AV32" s="26"/>
       <c r="AW32" s="26"/>
-      <c r="AX32" s="110"/>
+      <c r="AX32" s="109"/>
       <c r="AY32" s="30"/>
       <c r="AZ32" s="63"/>
       <c r="BA32" s="63"/>
       <c r="BB32" s="25"/>
       <c r="BC32" s="26"/>
       <c r="BD32" s="63"/>
-      <c r="BE32" s="64"/>
+      <c r="BE32" s="63"/>
       <c r="BF32" s="64"/>
       <c r="BG32" s="64"/>
       <c r="BH32" s="64"/>
@@ -5887,15 +5918,15 @@
       <c r="BK32" s="64"/>
       <c r="BL32" s="64"/>
       <c r="BM32" s="64"/>
-      <c r="BN32" s="77"/>
+      <c r="BN32" s="74"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="159"/>
+      <c r="A33" s="164"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="201"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="145"/>
       <c r="G33" s="52"/>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -5925,28 +5956,28 @@
       <c r="AG33" s="25"/>
       <c r="AH33" s="26"/>
       <c r="AI33" s="64"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="87"/>
+      <c r="AJ33" s="74"/>
+      <c r="AK33" s="84"/>
       <c r="AL33" s="64"/>
       <c r="AM33" s="64"/>
       <c r="AN33" s="25"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
       <c r="AU33" s="25"/>
       <c r="AV33" s="26"/>
       <c r="AW33" s="26"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="64"/>
+      <c r="AX33" s="108"/>
+      <c r="AY33" s="63"/>
       <c r="AZ33" s="63"/>
       <c r="BA33" s="63"/>
       <c r="BB33" s="25"/>
       <c r="BC33" s="26"/>
       <c r="BD33" s="63"/>
-      <c r="BE33" s="64"/>
+      <c r="BE33" s="63"/>
       <c r="BF33" s="64"/>
       <c r="BG33" s="64"/>
       <c r="BH33" s="64"/>
@@ -5955,21 +5986,21 @@
       <c r="BK33" s="64"/>
       <c r="BL33" s="64"/>
       <c r="BM33" s="64"/>
-      <c r="BN33" s="77"/>
+      <c r="BN33" s="74"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="168">
+      <c r="A34" s="142">
         <v>16</v>
       </c>
       <c r="B34" s="36"/>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="177"/>
-      <c r="E34" s="180" t="s">
+      <c r="D34" s="162"/>
+      <c r="E34" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="200"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -5999,28 +6030,28 @@
       <c r="AG34" s="25"/>
       <c r="AH34" s="26"/>
       <c r="AI34" s="64"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="87"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="84"/>
       <c r="AL34" s="64"/>
       <c r="AM34" s="64"/>
       <c r="AN34" s="25"/>
       <c r="AO34" s="26"/>
       <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="30"/>
       <c r="AT34" s="30"/>
       <c r="AU34" s="25"/>
       <c r="AV34" s="26"/>
       <c r="AW34" s="26"/>
-      <c r="AX34" s="30"/>
+      <c r="AX34" s="109"/>
       <c r="AY34" s="30"/>
       <c r="AZ34" s="63"/>
       <c r="BA34" s="63"/>
       <c r="BB34" s="25"/>
       <c r="BC34" s="26"/>
-      <c r="BD34" s="110"/>
-      <c r="BE34" s="30"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
       <c r="BF34" s="64"/>
       <c r="BG34" s="64"/>
       <c r="BH34" s="64"/>
@@ -6029,15 +6060,15 @@
       <c r="BK34" s="64"/>
       <c r="BL34" s="64"/>
       <c r="BM34" s="64"/>
-      <c r="BN34" s="77"/>
+      <c r="BN34" s="74"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="159"/>
+      <c r="A35" s="164"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="201"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="145"/>
       <c r="G35" s="52"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -6067,8 +6098,8 @@
       <c r="AG35" s="25"/>
       <c r="AH35" s="26"/>
       <c r="AI35" s="64"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="87"/>
+      <c r="AJ35" s="74"/>
+      <c r="AK35" s="84"/>
       <c r="AL35" s="64"/>
       <c r="AM35" s="64"/>
       <c r="AN35" s="25"/>
@@ -6081,14 +6112,14 @@
       <c r="AU35" s="25"/>
       <c r="AV35" s="26"/>
       <c r="AW35" s="26"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
       <c r="BB35" s="25"/>
       <c r="BC35" s="26"/>
-      <c r="BD35" s="64"/>
-      <c r="BE35" s="64"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
       <c r="BF35" s="64"/>
       <c r="BG35" s="64"/>
       <c r="BH35" s="64"/>
@@ -6097,21 +6128,21 @@
       <c r="BK35" s="64"/>
       <c r="BL35" s="64"/>
       <c r="BM35" s="64"/>
-      <c r="BN35" s="77"/>
+      <c r="BN35" s="74"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="168">
+      <c r="A36" s="142">
         <v>17</v>
       </c>
       <c r="B36" s="36"/>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="180" t="s">
+      <c r="D36" s="114"/>
+      <c r="E36" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="200"/>
+      <c r="F36" s="144"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -6141,8 +6172,8 @@
       <c r="AG36" s="25"/>
       <c r="AH36" s="26"/>
       <c r="AI36" s="64"/>
-      <c r="AJ36" s="77"/>
-      <c r="AK36" s="87"/>
+      <c r="AJ36" s="74"/>
+      <c r="AK36" s="84"/>
       <c r="AL36" s="64"/>
       <c r="AM36" s="64"/>
       <c r="AN36" s="25"/>
@@ -6155,13 +6186,13 @@
       <c r="AU36" s="25"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
+      <c r="AX36" s="41"/>
+      <c r="AY36" s="41"/>
+      <c r="AZ36" s="41"/>
+      <c r="BA36" s="63"/>
       <c r="BB36" s="25"/>
       <c r="BC36" s="26"/>
-      <c r="BD36" s="110"/>
+      <c r="BD36" s="109"/>
       <c r="BE36" s="30"/>
       <c r="BF36" s="64"/>
       <c r="BG36" s="64"/>
@@ -6171,3397 +6202,15 @@
       <c r="BK36" s="64"/>
       <c r="BL36" s="64"/>
       <c r="BM36" s="64"/>
-      <c r="BN36" s="77"/>
+      <c r="BN36" s="74"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="159"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="178"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="77"/>
-      <c r="AK37" s="87"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="26"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="26"/>
-      <c r="AW37" s="26"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="26"/>
-      <c r="BD37" s="99"/>
-      <c r="BE37" s="99"/>
-      <c r="BF37" s="99"/>
-      <c r="BG37" s="68"/>
-      <c r="BH37" s="99"/>
-      <c r="BI37" s="25"/>
-      <c r="BJ37" s="26"/>
-      <c r="BK37" s="68"/>
-      <c r="BL37" s="68"/>
-      <c r="BM37" s="99"/>
-      <c r="BN37" s="77"/>
-    </row>
-    <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="168">
-        <v>18</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="194" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="195"/>
-      <c r="E38" s="164" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="198"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="65"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="89"/>
-      <c r="AL38" s="65"/>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="15"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="65"/>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="65"/>
-      <c r="AS38" s="65"/>
-      <c r="AT38" s="65"/>
-      <c r="AU38" s="15"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="65"/>
-      <c r="AY38" s="65"/>
-      <c r="AZ38" s="65"/>
-      <c r="BA38" s="65"/>
-      <c r="BB38" s="15"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="41"/>
-      <c r="BF38" s="41"/>
-      <c r="BG38" s="41"/>
-      <c r="BH38" s="41"/>
-      <c r="BI38" s="15"/>
-      <c r="BJ38" s="21"/>
-      <c r="BK38" s="111"/>
-      <c r="BL38" s="60"/>
-      <c r="BM38" s="62"/>
-      <c r="BN38" s="79"/>
-    </row>
-    <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="199"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="63"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="63"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="63"/>
-      <c r="AJ39" s="80"/>
-      <c r="AK39" s="90"/>
-      <c r="AL39" s="63"/>
-      <c r="AM39" s="63"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="63"/>
-      <c r="AQ39" s="63"/>
-      <c r="AR39" s="63"/>
-      <c r="AS39" s="63"/>
-      <c r="AT39" s="63"/>
-      <c r="AU39" s="13"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="63"/>
-      <c r="AY39" s="63"/>
-      <c r="AZ39" s="63"/>
-      <c r="BA39" s="63"/>
-      <c r="BB39" s="13"/>
-      <c r="BC39" s="19"/>
-      <c r="BD39" s="63"/>
-      <c r="BE39" s="63"/>
-      <c r="BF39" s="99"/>
-      <c r="BG39" s="63"/>
-      <c r="BH39" s="63"/>
-      <c r="BI39" s="13"/>
-      <c r="BJ39" s="19"/>
-      <c r="BK39" s="64"/>
-      <c r="BL39" s="64"/>
-      <c r="BM39" s="68"/>
-      <c r="BN39" s="78"/>
-    </row>
-    <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="168">
-        <v>19</v>
-      </c>
-      <c r="B40" s="203" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="189" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="190"/>
-      <c r="E40" s="165" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="208"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="65"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="65"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="65"/>
-      <c r="AM40" s="65"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="65"/>
-      <c r="AQ40" s="65"/>
-      <c r="AR40" s="65"/>
-      <c r="AS40" s="65"/>
-      <c r="AT40" s="65"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="65"/>
-      <c r="AY40" s="65"/>
-      <c r="AZ40" s="65"/>
-      <c r="BA40" s="65"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="65"/>
-      <c r="BE40" s="65"/>
-      <c r="BF40" s="65"/>
-      <c r="BG40" s="65"/>
-      <c r="BH40" s="65"/>
-      <c r="BI40" s="15"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="60"/>
-      <c r="BL40" s="60"/>
-      <c r="BM40" s="60"/>
-      <c r="BN40" s="60"/>
-      <c r="BO40" s="100"/>
-    </row>
-    <row r="41" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A41" s="202"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="205"/>
-      <c r="D41" s="206"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="209"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="81"/>
-      <c r="AK41" s="91"/>
-      <c r="AL41" s="69"/>
-      <c r="AM41" s="69"/>
-      <c r="AN41" s="14"/>
-      <c r="AO41" s="20"/>
-      <c r="AP41" s="69"/>
-      <c r="AQ41" s="69"/>
-      <c r="AR41" s="69"/>
-      <c r="AS41" s="69"/>
-      <c r="AT41" s="69"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="20"/>
-      <c r="AW41" s="20"/>
-      <c r="AX41" s="69"/>
-      <c r="AY41" s="69"/>
-      <c r="AZ41" s="69"/>
-      <c r="BA41" s="69"/>
-      <c r="BB41" s="14"/>
-      <c r="BC41" s="20"/>
-      <c r="BD41" s="69"/>
-      <c r="BE41" s="69"/>
-      <c r="BF41" s="69"/>
-      <c r="BG41" s="69"/>
-      <c r="BH41" s="69"/>
-      <c r="BI41" s="14"/>
-      <c r="BJ41" s="20"/>
-      <c r="BK41" s="69"/>
-      <c r="BL41" s="69"/>
-      <c r="BM41" s="69"/>
-      <c r="BN41" s="102"/>
-      <c r="BO41" s="100"/>
-    </row>
-    <row r="42" spans="1:67">
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-    </row>
-    <row r="43" spans="1:67">
-      <c r="A43" s="27"/>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:67">
-      <c r="A44" s="28"/>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:67">
-      <c r="A45" s="109"/>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F5DA1E-9A93-41B8-8787-365DAC723AA7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BO47"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="141" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="144" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="138">
-        <v>45536</v>
-      </c>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="139"/>
-      <c r="AG1" s="139"/>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="139"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="138">
-        <v>45566</v>
-      </c>
-      <c r="AL1" s="139"/>
-      <c r="AM1" s="139"/>
-      <c r="AN1" s="139"/>
-      <c r="AO1" s="139"/>
-      <c r="AP1" s="139"/>
-      <c r="AQ1" s="139"/>
-      <c r="AR1" s="139"/>
-      <c r="AS1" s="139"/>
-      <c r="AT1" s="139"/>
-      <c r="AU1" s="139"/>
-      <c r="AV1" s="139"/>
-      <c r="AW1" s="139"/>
-      <c r="AX1" s="139"/>
-      <c r="AY1" s="139"/>
-      <c r="AZ1" s="139"/>
-      <c r="BA1" s="139"/>
-      <c r="BB1" s="139"/>
-      <c r="BC1" s="139"/>
-      <c r="BD1" s="139"/>
-      <c r="BE1" s="139"/>
-      <c r="BF1" s="139"/>
-      <c r="BG1" s="139"/>
-      <c r="BH1" s="139"/>
-      <c r="BI1" s="139"/>
-      <c r="BJ1" s="139"/>
-      <c r="BK1" s="139"/>
-      <c r="BL1" s="139"/>
-      <c r="BM1" s="139"/>
-      <c r="BN1" s="140"/>
-    </row>
-    <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="46">
-        <v>45537</v>
-      </c>
-      <c r="H2" s="4">
-        <f>G2+1</f>
-        <v>45538</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:BN2" si="0">H2+1</f>
-        <v>45539</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>45540</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>45541</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>45542</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>45543</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="0"/>
-        <v>45544</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" si="0"/>
-        <v>45545</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" si="0"/>
-        <v>45546</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" si="0"/>
-        <v>45547</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" si="0"/>
-        <v>45548</v>
-      </c>
-      <c r="S2" s="4">
-        <f t="shared" si="0"/>
-        <v>45549</v>
-      </c>
-      <c r="T2" s="4">
-        <f t="shared" si="0"/>
-        <v>45550</v>
-      </c>
-      <c r="U2" s="4">
-        <f t="shared" si="0"/>
-        <v>45551</v>
-      </c>
-      <c r="V2" s="4">
-        <f t="shared" si="0"/>
-        <v>45552</v>
-      </c>
-      <c r="W2" s="4">
-        <f t="shared" si="0"/>
-        <v>45553</v>
-      </c>
-      <c r="X2" s="4">
-        <f t="shared" si="0"/>
-        <v>45554</v>
-      </c>
-      <c r="Y2" s="4">
-        <f t="shared" si="0"/>
-        <v>45555</v>
-      </c>
-      <c r="Z2" s="4">
-        <f t="shared" si="0"/>
-        <v>45556</v>
-      </c>
-      <c r="AA2" s="4">
-        <f t="shared" si="0"/>
-        <v>45557</v>
-      </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="0"/>
-        <v>45558</v>
-      </c>
-      <c r="AC2" s="4">
-        <f t="shared" si="0"/>
-        <v>45559</v>
-      </c>
-      <c r="AD2" s="4">
-        <f t="shared" si="0"/>
-        <v>45560</v>
-      </c>
-      <c r="AE2" s="4">
-        <f t="shared" si="0"/>
-        <v>45561</v>
-      </c>
-      <c r="AF2" s="4">
-        <f t="shared" si="0"/>
-        <v>45562</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" si="0"/>
-        <v>45563</v>
-      </c>
-      <c r="AH2" s="4">
-        <f t="shared" si="0"/>
-        <v>45564</v>
-      </c>
-      <c r="AI2" s="4">
-        <f t="shared" si="0"/>
-        <v>45565</v>
-      </c>
-      <c r="AJ2" s="47">
-        <f t="shared" si="0"/>
-        <v>45566</v>
-      </c>
-      <c r="AK2" s="46">
-        <f t="shared" si="0"/>
-        <v>45567</v>
-      </c>
-      <c r="AL2" s="4">
-        <f t="shared" si="0"/>
-        <v>45568</v>
-      </c>
-      <c r="AM2" s="4">
-        <f t="shared" si="0"/>
-        <v>45569</v>
-      </c>
-      <c r="AN2" s="4">
-        <f t="shared" si="0"/>
-        <v>45570</v>
-      </c>
-      <c r="AO2" s="4">
-        <f t="shared" si="0"/>
-        <v>45571</v>
-      </c>
-      <c r="AP2" s="4">
-        <f t="shared" si="0"/>
-        <v>45572</v>
-      </c>
-      <c r="AQ2" s="4">
-        <f t="shared" si="0"/>
-        <v>45573</v>
-      </c>
-      <c r="AR2" s="4">
-        <f t="shared" si="0"/>
-        <v>45574</v>
-      </c>
-      <c r="AS2" s="4">
-        <f t="shared" si="0"/>
-        <v>45575</v>
-      </c>
-      <c r="AT2" s="4">
-        <f t="shared" si="0"/>
-        <v>45576</v>
-      </c>
-      <c r="AU2" s="4">
-        <f t="shared" si="0"/>
-        <v>45577</v>
-      </c>
-      <c r="AV2" s="4">
-        <f t="shared" si="0"/>
-        <v>45578</v>
-      </c>
-      <c r="AW2" s="4">
-        <f t="shared" si="0"/>
-        <v>45579</v>
-      </c>
-      <c r="AX2" s="4">
-        <f t="shared" si="0"/>
-        <v>45580</v>
-      </c>
-      <c r="AY2" s="4">
-        <f t="shared" si="0"/>
-        <v>45581</v>
-      </c>
-      <c r="AZ2" s="4">
-        <f t="shared" si="0"/>
-        <v>45582</v>
-      </c>
-      <c r="BA2" s="4">
-        <f t="shared" si="0"/>
-        <v>45583</v>
-      </c>
-      <c r="BB2" s="4">
-        <f t="shared" si="0"/>
-        <v>45584</v>
-      </c>
-      <c r="BC2" s="4">
-        <f t="shared" si="0"/>
-        <v>45585</v>
-      </c>
-      <c r="BD2" s="4">
-        <f t="shared" si="0"/>
-        <v>45586</v>
-      </c>
-      <c r="BE2" s="4">
-        <f t="shared" si="0"/>
-        <v>45587</v>
-      </c>
-      <c r="BF2" s="4">
-        <f t="shared" si="0"/>
-        <v>45588</v>
-      </c>
-      <c r="BG2" s="4">
-        <f t="shared" si="0"/>
-        <v>45589</v>
-      </c>
-      <c r="BH2" s="4">
-        <f t="shared" si="0"/>
-        <v>45590</v>
-      </c>
-      <c r="BI2" s="4">
-        <f t="shared" si="0"/>
-        <v>45591</v>
-      </c>
-      <c r="BJ2" s="4">
-        <f t="shared" si="0"/>
-        <v>45592</v>
-      </c>
-      <c r="BK2" s="4">
-        <f t="shared" si="0"/>
-        <v>45593</v>
-      </c>
-      <c r="BL2" s="4">
-        <f t="shared" si="0"/>
-        <v>45594</v>
-      </c>
-      <c r="BM2" s="4">
-        <f t="shared" si="0"/>
-        <v>45595</v>
-      </c>
-      <c r="BN2" s="47">
-        <f t="shared" si="0"/>
-        <v>45596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ3" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK3" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="AZ3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="BE3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="BF3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="BI3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="BJ3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="BM3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="BN3" s="70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="158">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="160" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="164" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" s="71"/>
-    </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="117"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="9"/>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="117"/>
-    </row>
-    <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="168">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="176" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="181"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-      <c r="BM6" s="7"/>
-      <c r="BN6" s="73"/>
-    </row>
-    <row r="7" spans="1:66" ht="13.2" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="107"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="8"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="116"/>
-    </row>
-    <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="183">
-        <v>3</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="169" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="213"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="117"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-      <c r="AX8" s="108"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="6"/>
-      <c r="BL8" s="6"/>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="75"/>
-    </row>
-    <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="201"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-      <c r="BM9" s="7"/>
-      <c r="BN9" s="73"/>
-    </row>
-    <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="168">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="164" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="200"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="19"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="19"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="73"/>
-    </row>
-    <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="159"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="13"/>
-      <c r="BC11" s="19"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="19"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
-      <c r="BN11" s="73"/>
-    </row>
-    <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="168">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="169" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="186" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="200"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="73"/>
-    </row>
-    <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="159"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="43"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="43"/>
-      <c r="AY13" s="43"/>
-      <c r="AZ13" s="43"/>
-      <c r="BA13" s="43"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="45"/>
-      <c r="BD13" s="43"/>
-      <c r="BE13" s="43"/>
-      <c r="BF13" s="43"/>
-      <c r="BG13" s="43"/>
-      <c r="BH13" s="43"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="45"/>
-      <c r="BK13" s="43"/>
-      <c r="BL13" s="43"/>
-      <c r="BM13" s="43"/>
-      <c r="BN13" s="96"/>
-    </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="168">
-        <v>6</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="165" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="174"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
-      <c r="AR14" s="9"/>
-      <c r="AS14" s="9"/>
-      <c r="AT14" s="9"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-      <c r="AX14" s="9"/>
-      <c r="AY14" s="9"/>
-      <c r="AZ14" s="9"/>
-      <c r="BA14" s="9"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="22"/>
-      <c r="BD14" s="9"/>
-      <c r="BE14" s="9"/>
-      <c r="BF14" s="9"/>
-      <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
-      <c r="BI14" s="16"/>
-      <c r="BJ14" s="22"/>
-      <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
-      <c r="BM14" s="9"/>
-      <c r="BN14" s="117"/>
-    </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="129"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="83"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="9"/>
-      <c r="AQ15" s="9"/>
-      <c r="AR15" s="9"/>
-      <c r="AS15" s="9"/>
-      <c r="AT15" s="9"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="22"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="22"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
-      <c r="BG15" s="9"/>
-      <c r="BH15" s="9"/>
-      <c r="BI15" s="16"/>
-      <c r="BJ15" s="22"/>
-      <c r="BK15" s="9"/>
-      <c r="BL15" s="9"/>
-      <c r="BM15" s="9"/>
-      <c r="BN15" s="117"/>
-    </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="168">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="176" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="186" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="188"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="114"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="7"/>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="7"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7"/>
-      <c r="BH16" s="7"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
-      <c r="BM16" s="7"/>
-      <c r="BN16" s="73"/>
-    </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="159"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="83"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="116"/>
-    </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="168">
-        <v>8</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="189" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="190"/>
-      <c r="E18" s="164" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="191"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="114"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="60"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="15"/>
-      <c r="BC18" s="21"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="15"/>
-      <c r="BJ18" s="21"/>
-      <c r="BK18" s="6"/>
-      <c r="BL18" s="6"/>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="75"/>
-    </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="159"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="26"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="24"/>
-      <c r="BG19" s="24"/>
-      <c r="BH19" s="24"/>
-      <c r="BI19" s="25"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="24"/>
-      <c r="BL19" s="24"/>
-      <c r="BM19" s="24"/>
-      <c r="BN19" s="116"/>
-    </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="168">
-        <v>9</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="176" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="177"/>
-      <c r="E20" s="180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="188"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="19"/>
-      <c r="AP20" s="114"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="7"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="7"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="7"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
-      <c r="BH20" s="7"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="19"/>
-      <c r="BK20" s="7"/>
-      <c r="BL20" s="7"/>
-      <c r="BM20" s="7"/>
-      <c r="BN20" s="73"/>
-    </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="159"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="116"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="25"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="24"/>
-      <c r="BG21" s="24"/>
-      <c r="BH21" s="24"/>
-      <c r="BI21" s="25"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="24"/>
-      <c r="BL21" s="24"/>
-      <c r="BM21" s="24"/>
-      <c r="BN21" s="116"/>
-    </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="168">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="176" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="188"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="114"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="64"/>
-      <c r="AS22" s="64"/>
-      <c r="AT22" s="64"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="64"/>
-      <c r="AY22" s="64"/>
-      <c r="AZ22" s="64"/>
-      <c r="BA22" s="64"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="64"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="64"/>
-      <c r="BG22" s="64"/>
-      <c r="BH22" s="64"/>
-      <c r="BI22" s="25"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="64"/>
-      <c r="BL22" s="64"/>
-      <c r="BM22" s="64"/>
-      <c r="BN22" s="77"/>
-    </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="159"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="68"/>
-      <c r="AM23" s="68"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="68"/>
-      <c r="AQ23" s="68"/>
-      <c r="AR23" s="68"/>
-      <c r="AS23" s="68"/>
-      <c r="AT23" s="68"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="23"/>
-      <c r="AW23" s="23"/>
-      <c r="AX23" s="68"/>
-      <c r="AY23" s="68"/>
-      <c r="AZ23" s="68"/>
-      <c r="BA23" s="68"/>
-      <c r="BB23" s="17"/>
-      <c r="BC23" s="23"/>
-      <c r="BD23" s="68"/>
-      <c r="BE23" s="68"/>
-      <c r="BF23" s="68"/>
-      <c r="BG23" s="68"/>
-      <c r="BH23" s="68"/>
-      <c r="BI23" s="17"/>
-      <c r="BJ23" s="23"/>
-      <c r="BK23" s="68"/>
-      <c r="BL23" s="68"/>
-      <c r="BM23" s="68"/>
-      <c r="BN23" s="78"/>
-    </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="168">
-        <v>11</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="189" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="190"/>
-      <c r="E24" s="164" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="191"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
-      <c r="AE24" s="65"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="117"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="63"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="111"/>
-      <c r="AY24" s="60"/>
-      <c r="AZ24" s="65"/>
-      <c r="BA24" s="65"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="65"/>
-      <c r="BE24" s="65"/>
-      <c r="BF24" s="65"/>
-      <c r="BG24" s="65"/>
-      <c r="BH24" s="65"/>
-      <c r="BI24" s="15"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="65"/>
-      <c r="BL24" s="65"/>
-      <c r="BM24" s="65"/>
-      <c r="BN24" s="79"/>
-    </row>
-    <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="159"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="63"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="19"/>
-      <c r="AP25" s="115"/>
-      <c r="AQ25" s="63"/>
-      <c r="AR25" s="63"/>
-      <c r="AS25" s="63"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="63"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="63"/>
-      <c r="BE25" s="63"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63"/>
-      <c r="BH25" s="63"/>
-      <c r="BI25" s="13"/>
-      <c r="BJ25" s="19"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="80"/>
-    </row>
-    <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="168">
-        <v>12</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="184" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="185"/>
-      <c r="E26" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="213"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="22"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="63"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="63"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="63"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="22"/>
-      <c r="AP26" s="63"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="63"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="114"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="22"/>
-      <c r="BD26" s="62"/>
-      <c r="BE26" s="62"/>
-      <c r="BF26" s="62"/>
-      <c r="BG26" s="62"/>
-      <c r="BH26" s="62"/>
-      <c r="BI26" s="16"/>
-      <c r="BJ26" s="22"/>
-      <c r="BK26" s="62"/>
-      <c r="BL26" s="62"/>
-      <c r="BM26" s="62"/>
-      <c r="BN26" s="80"/>
-    </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="159"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="63"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="63"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="63"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="63"/>
-      <c r="AJ27" s="80"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="63"/>
-      <c r="AQ27" s="63"/>
-      <c r="AR27" s="63"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="63"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="63"/>
-      <c r="AY27" s="63"/>
-      <c r="AZ27" s="63"/>
-      <c r="BA27" s="63"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="63"/>
-      <c r="BE27" s="63"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63"/>
-      <c r="BH27" s="63"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="19"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="80"/>
-    </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="168">
-        <v>13</v>
-      </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="176" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="177"/>
-      <c r="E28" s="180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="200"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="90"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="114"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="13"/>
-      <c r="BJ28" s="19"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="80"/>
-    </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="159"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="63"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="63"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="63"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="19"/>
-      <c r="AP29" s="63"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="63"/>
-      <c r="AS29" s="63"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="63"/>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="63"/>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="19"/>
-      <c r="BD29" s="63"/>
-      <c r="BE29" s="63"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="63"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="13"/>
-      <c r="BJ29" s="19"/>
-      <c r="BK29" s="63"/>
-      <c r="BL29" s="63"/>
-      <c r="BM29" s="63"/>
-      <c r="BN29" s="80"/>
-    </row>
-    <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="168">
-        <v>14</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="176" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="177"/>
-      <c r="E30" s="180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="200"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="63"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="19"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="80"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="63"/>
-      <c r="AQ30" s="63"/>
-      <c r="AR30" s="63"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="19"/>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="114"/>
-      <c r="AY30" s="30"/>
-      <c r="AZ30" s="63"/>
-      <c r="BA30" s="63"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="19"/>
-      <c r="BD30" s="63"/>
-      <c r="BE30" s="63"/>
-      <c r="BF30" s="63"/>
-      <c r="BG30" s="63"/>
-      <c r="BH30" s="63"/>
-      <c r="BI30" s="13"/>
-      <c r="BJ30" s="19"/>
-      <c r="BK30" s="63"/>
-      <c r="BL30" s="63"/>
-      <c r="BM30" s="63"/>
-      <c r="BN30" s="80"/>
-    </row>
-    <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="159"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="201"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="63"/>
-      <c r="AE31" s="63"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="19"/>
-      <c r="AI31" s="63"/>
-      <c r="AJ31" s="80"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="63"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="19"/>
-      <c r="AP31" s="63"/>
-      <c r="AQ31" s="63"/>
-      <c r="AR31" s="63"/>
-      <c r="AS31" s="63"/>
-      <c r="AT31" s="63"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="113"/>
-      <c r="AY31" s="63"/>
-      <c r="AZ31" s="63"/>
-      <c r="BA31" s="63"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="19"/>
-      <c r="BD31" s="63"/>
-      <c r="BE31" s="63"/>
-      <c r="BF31" s="63"/>
-      <c r="BG31" s="63"/>
-      <c r="BH31" s="63"/>
-      <c r="BI31" s="13"/>
-      <c r="BJ31" s="19"/>
-      <c r="BK31" s="63"/>
-      <c r="BL31" s="63"/>
-      <c r="BM31" s="63"/>
-      <c r="BN31" s="80"/>
-    </row>
-    <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="168">
-        <v>15</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="176" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="200"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="77"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="64"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="26"/>
-      <c r="AP32" s="64"/>
-      <c r="AQ32" s="64"/>
-      <c r="AR32" s="64"/>
-      <c r="AS32" s="64"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="30"/>
-      <c r="AY32" s="30"/>
-      <c r="AZ32" s="63"/>
-      <c r="BA32" s="63"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="114"/>
-      <c r="BE32" s="30"/>
-      <c r="BF32" s="64"/>
-      <c r="BG32" s="64"/>
-      <c r="BH32" s="64"/>
-      <c r="BI32" s="25"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="77"/>
-    </row>
-    <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="159"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="201"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="25"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="77"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="64"/>
-      <c r="AM33" s="64"/>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="26"/>
-      <c r="AP33" s="64"/>
-      <c r="AQ33" s="64"/>
-      <c r="AR33" s="64"/>
-      <c r="AS33" s="64"/>
-      <c r="AT33" s="64"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="64"/>
-      <c r="AZ33" s="64"/>
-      <c r="BA33" s="63"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="63"/>
-      <c r="BE33" s="64"/>
-      <c r="BF33" s="64"/>
-      <c r="BG33" s="64"/>
-      <c r="BH33" s="64"/>
-      <c r="BI33" s="25"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="64"/>
-      <c r="BL33" s="64"/>
-      <c r="BM33" s="64"/>
-      <c r="BN33" s="77"/>
-    </row>
-    <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="168">
-        <v>16</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="176" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="177"/>
-      <c r="E34" s="180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="200"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="25"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="77"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="64"/>
-      <c r="AM34" s="64"/>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="26"/>
-      <c r="AP34" s="64"/>
-      <c r="AQ34" s="64"/>
-      <c r="AR34" s="64"/>
-      <c r="AS34" s="64"/>
-      <c r="AT34" s="64"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="30"/>
-      <c r="AY34" s="30"/>
-      <c r="AZ34" s="30"/>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="25"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="114"/>
-      <c r="BE34" s="30"/>
-      <c r="BF34" s="64"/>
-      <c r="BG34" s="64"/>
-      <c r="BH34" s="64"/>
-      <c r="BI34" s="25"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="64"/>
-      <c r="BL34" s="64"/>
-      <c r="BM34" s="64"/>
-      <c r="BN34" s="77"/>
-    </row>
-    <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="64"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="64"/>
-      <c r="AD35" s="64"/>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="25"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="77"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="64"/>
-      <c r="AM35" s="64"/>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="26"/>
-      <c r="AP35" s="64"/>
-      <c r="AQ35" s="64"/>
-      <c r="AR35" s="64"/>
-      <c r="AS35" s="64"/>
-      <c r="AT35" s="64"/>
-      <c r="AU35" s="25"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="64"/>
-      <c r="AY35" s="64"/>
-      <c r="AZ35" s="64"/>
-      <c r="BA35" s="64"/>
-      <c r="BB35" s="25"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="63"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="64"/>
-      <c r="BG35" s="64"/>
-      <c r="BH35" s="64"/>
-      <c r="BI35" s="25"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="64"/>
-      <c r="BL35" s="64"/>
-      <c r="BM35" s="64"/>
-      <c r="BN35" s="77"/>
-    </row>
-    <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="168">
-        <v>17</v>
-      </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="200"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="77"/>
-      <c r="AK36" s="87"/>
-      <c r="AL36" s="64"/>
-      <c r="AM36" s="64"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="26"/>
-      <c r="AP36" s="64"/>
-      <c r="AQ36" s="64"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="64"/>
-      <c r="AT36" s="64"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="64"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="114"/>
-      <c r="BE36" s="30"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="64"/>
-      <c r="BH36" s="64"/>
-      <c r="BI36" s="25"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="64"/>
-      <c r="BL36" s="64"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="77"/>
-    </row>
-    <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="159"/>
+      <c r="A37" s="164"/>
       <c r="B37" s="37"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="210"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="146"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -9591,10 +6240,10 @@
       <c r="AG37" s="17"/>
       <c r="AH37" s="23"/>
       <c r="AI37" s="68"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="88"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="85"/>
       <c r="AL37" s="68"/>
-      <c r="AM37" s="68"/>
+      <c r="AM37" s="96"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="23"/>
       <c r="AP37" s="68"/>
@@ -9621,311 +6270,309 @@
       <c r="BK37" s="68"/>
       <c r="BL37" s="68"/>
       <c r="BM37" s="68"/>
-      <c r="BN37" s="78"/>
+      <c r="BN37" s="75"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="168">
+      <c r="A38" s="142">
         <v>18</v>
       </c>
-      <c r="B38" s="126" t="s">
+      <c r="B38" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="184" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="180" t="s">
+      <c r="C38" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="137"/>
+      <c r="E38" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="214"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="131"/>
-      <c r="U38" s="131"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="95"/>
-      <c r="X38" s="95"/>
-      <c r="Y38" s="95"/>
-      <c r="Z38" s="130"/>
-      <c r="AA38" s="131"/>
-      <c r="AB38" s="131"/>
-      <c r="AC38" s="95"/>
-      <c r="AD38" s="95"/>
-      <c r="AE38" s="95"/>
-      <c r="AF38" s="95"/>
-      <c r="AG38" s="130"/>
-      <c r="AH38" s="131"/>
-      <c r="AI38" s="95"/>
-      <c r="AJ38" s="132"/>
-      <c r="AK38" s="133"/>
-      <c r="AL38" s="95"/>
-      <c r="AM38" s="95"/>
-      <c r="AN38" s="130"/>
-      <c r="AO38" s="131"/>
-      <c r="AP38" s="95"/>
-      <c r="AQ38" s="95"/>
-      <c r="AR38" s="95"/>
-      <c r="AS38" s="95"/>
-      <c r="AT38" s="95"/>
-      <c r="AU38" s="130"/>
-      <c r="AV38" s="131"/>
-      <c r="AW38" s="131"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="95"/>
-      <c r="AZ38" s="95"/>
-      <c r="BA38" s="95"/>
-      <c r="BB38" s="130"/>
-      <c r="BC38" s="131"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="41"/>
-      <c r="BF38" s="41"/>
-      <c r="BG38" s="95"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="130"/>
-      <c r="BJ38" s="131"/>
-      <c r="BK38" s="111"/>
-      <c r="BL38" s="60"/>
-      <c r="BM38" s="95"/>
-      <c r="BN38" s="132"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="74"/>
+      <c r="AK38" s="84"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="30"/>
+      <c r="AR38" s="30"/>
+      <c r="AS38" s="30"/>
+      <c r="AT38" s="30"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="107"/>
+      <c r="AY38" s="60"/>
+      <c r="AZ38" s="65"/>
+      <c r="BA38" s="65"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="21"/>
+      <c r="BD38" s="65"/>
+      <c r="BE38" s="65"/>
+      <c r="BF38" s="65"/>
+      <c r="BG38" s="65"/>
+      <c r="BH38" s="65"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="65"/>
+      <c r="BL38" s="65"/>
+      <c r="BM38" s="65"/>
+      <c r="BN38" s="76"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="178"/>
-      <c r="D39" s="179"/>
-      <c r="E39" s="164"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="64"/>
-      <c r="AD39" s="64"/>
-      <c r="AE39" s="64"/>
-      <c r="AF39" s="64"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="64"/>
+      <c r="A39" s="164"/>
+      <c r="B39" s="175"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="63"/>
       <c r="AJ39" s="77"/>
       <c r="AK39" s="87"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="26"/>
-      <c r="AP39" s="64"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="64"/>
-      <c r="AS39" s="64"/>
-      <c r="AT39" s="64"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="26"/>
-      <c r="AW39" s="26"/>
-      <c r="AX39" s="64"/>
-      <c r="AY39" s="64"/>
-      <c r="AZ39" s="64"/>
-      <c r="BA39" s="64"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="26"/>
-      <c r="BD39" s="99"/>
-      <c r="BE39" s="99"/>
-      <c r="BF39" s="99"/>
-      <c r="BG39" s="68"/>
-      <c r="BH39" s="99"/>
-      <c r="BI39" s="25"/>
-      <c r="BJ39" s="26"/>
-      <c r="BK39" s="68"/>
-      <c r="BL39" s="68"/>
-      <c r="BM39" s="99"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="63"/>
+      <c r="AZ39" s="63"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="63"/>
+      <c r="BE39" s="63"/>
+      <c r="BF39" s="63"/>
+      <c r="BG39" s="63"/>
+      <c r="BH39" s="63"/>
+      <c r="BI39" s="13"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
       <c r="BN39" s="77"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="168">
+      <c r="A40" s="142">
         <v>19</v>
       </c>
-      <c r="B40" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="194" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="195"/>
-      <c r="E40" s="164" t="s">
+      <c r="B40" s="175"/>
+      <c r="C40" s="147" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="148"/>
+      <c r="E40" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="198"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="65"/>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="65"/>
-      <c r="AF40" s="65"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="21"/>
-      <c r="AI40" s="65"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="89"/>
-      <c r="AL40" s="65"/>
-      <c r="AM40" s="65"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="65"/>
-      <c r="AQ40" s="65"/>
-      <c r="AR40" s="65"/>
-      <c r="AS40" s="65"/>
-      <c r="AT40" s="65"/>
-      <c r="AU40" s="15"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="65"/>
-      <c r="AY40" s="65"/>
-      <c r="AZ40" s="65"/>
-      <c r="BA40" s="65"/>
-      <c r="BB40" s="15"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="63"/>
-      <c r="BE40" s="63"/>
-      <c r="BF40" s="41"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="41"/>
-      <c r="BI40" s="15"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="111"/>
-      <c r="BL40" s="60"/>
-      <c r="BM40" s="62"/>
-      <c r="BN40" s="79"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="120"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="92"/>
+      <c r="AE40" s="92"/>
+      <c r="AF40" s="92"/>
+      <c r="AG40" s="119"/>
+      <c r="AH40" s="120"/>
+      <c r="AI40" s="92"/>
+      <c r="AJ40" s="121"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="63"/>
+      <c r="AN40" s="119"/>
+      <c r="AO40" s="120"/>
+      <c r="AP40" s="63"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="63"/>
+      <c r="AU40" s="119"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="41"/>
+      <c r="AY40" s="41"/>
+      <c r="AZ40" s="41"/>
+      <c r="BA40" s="41"/>
+      <c r="BB40" s="119"/>
+      <c r="BC40" s="120"/>
+      <c r="BD40" s="109"/>
+      <c r="BE40" s="30"/>
+      <c r="BF40" s="92"/>
+      <c r="BG40" s="92"/>
+      <c r="BH40" s="92"/>
+      <c r="BI40" s="119"/>
+      <c r="BJ40" s="120"/>
+      <c r="BK40" s="63"/>
+      <c r="BL40" s="63"/>
+      <c r="BM40" s="92"/>
+      <c r="BN40" s="121"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="164"/>
-      <c r="F41" s="199"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="80"/>
-      <c r="AK41" s="90"/>
-      <c r="AL41" s="63"/>
-      <c r="AM41" s="63"/>
-      <c r="AN41" s="13"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="63"/>
-      <c r="AQ41" s="63"/>
-      <c r="AR41" s="63"/>
-      <c r="AS41" s="63"/>
-      <c r="AT41" s="63"/>
-      <c r="AU41" s="13"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="63"/>
-      <c r="AY41" s="63"/>
-      <c r="AZ41" s="63"/>
-      <c r="BA41" s="63"/>
-      <c r="BB41" s="13"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="63"/>
-      <c r="BE41" s="63"/>
-      <c r="BF41" s="99"/>
-      <c r="BG41" s="63"/>
-      <c r="BH41" s="63"/>
-      <c r="BI41" s="13"/>
-      <c r="BJ41" s="19"/>
-      <c r="BK41" s="64"/>
-      <c r="BL41" s="64"/>
-      <c r="BM41" s="68"/>
-      <c r="BN41" s="78"/>
+      <c r="A41" s="164"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="74"/>
+      <c r="AK41" s="84"/>
+      <c r="AL41" s="64"/>
+      <c r="AM41" s="64"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="64"/>
+      <c r="AQ41" s="64"/>
+      <c r="AR41" s="64"/>
+      <c r="AS41" s="64"/>
+      <c r="AT41" s="64"/>
+      <c r="AU41" s="25"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="64"/>
+      <c r="AY41" s="64"/>
+      <c r="AZ41" s="64"/>
+      <c r="BA41" s="64"/>
+      <c r="BB41" s="25"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="96"/>
+      <c r="BE41" s="96"/>
+      <c r="BF41" s="96"/>
+      <c r="BG41" s="68"/>
+      <c r="BH41" s="96"/>
+      <c r="BI41" s="25"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="68"/>
+      <c r="BL41" s="68"/>
+      <c r="BM41" s="96"/>
+      <c r="BN41" s="74"/>
     </row>
     <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="168">
+      <c r="A42" s="142">
         <v>20</v>
       </c>
-      <c r="B42" s="203" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="189" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="190"/>
-      <c r="E42" s="165" t="s">
+      <c r="B42" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="167"/>
+      <c r="E42" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="208"/>
+      <c r="F42" s="170"/>
       <c r="G42" s="38"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -9933,11 +6580,11 @@
       <c r="K42" s="6"/>
       <c r="L42" s="15"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
       <c r="S42" s="15"/>
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
@@ -9949,14 +6596,14 @@
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
+      <c r="AD42" s="67"/>
       <c r="AE42" s="65"/>
       <c r="AF42" s="65"/>
       <c r="AG42" s="15"/>
       <c r="AH42" s="21"/>
       <c r="AI42" s="65"/>
-      <c r="AJ42" s="79"/>
-      <c r="AK42" s="89"/>
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="86"/>
       <c r="AL42" s="65"/>
       <c r="AM42" s="65"/>
       <c r="AN42" s="15"/>
@@ -9975,152 +6622,289 @@
       <c r="BA42" s="65"/>
       <c r="BB42" s="15"/>
       <c r="BC42" s="21"/>
-      <c r="BD42" s="65"/>
-      <c r="BE42" s="65"/>
-      <c r="BF42" s="65"/>
-      <c r="BG42" s="65"/>
-      <c r="BH42" s="65"/>
+      <c r="BD42" s="30"/>
+      <c r="BE42" s="30"/>
+      <c r="BF42" s="30"/>
+      <c r="BG42" s="30"/>
+      <c r="BH42" s="63"/>
       <c r="BI42" s="15"/>
       <c r="BJ42" s="21"/>
-      <c r="BK42" s="60"/>
+      <c r="BK42" s="107"/>
       <c r="BL42" s="60"/>
-      <c r="BM42" s="60"/>
-      <c r="BN42" s="60"/>
-      <c r="BO42" s="100"/>
+      <c r="BM42" s="62"/>
+      <c r="BN42" s="76"/>
+      <c r="BO42" s="97"/>
     </row>
-    <row r="43" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="159"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="205"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="209"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="69"/>
-      <c r="W43" s="69"/>
-      <c r="X43" s="69"/>
-      <c r="Y43" s="69"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="69"/>
-      <c r="AE43" s="69"/>
-      <c r="AF43" s="69"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="69"/>
-      <c r="AJ43" s="81"/>
-      <c r="AK43" s="91"/>
-      <c r="AL43" s="69"/>
-      <c r="AM43" s="69"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="20"/>
-      <c r="AP43" s="69"/>
-      <c r="AQ43" s="69"/>
-      <c r="AR43" s="69"/>
-      <c r="AS43" s="69"/>
-      <c r="AT43" s="69"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="20"/>
-      <c r="AW43" s="20"/>
-      <c r="AX43" s="69"/>
-      <c r="AY43" s="69"/>
-      <c r="AZ43" s="69"/>
-      <c r="BA43" s="69"/>
-      <c r="BB43" s="14"/>
-      <c r="BC43" s="20"/>
-      <c r="BD43" s="69"/>
-      <c r="BE43" s="69"/>
-      <c r="BF43" s="69"/>
-      <c r="BG43" s="69"/>
-      <c r="BH43" s="69"/>
-      <c r="BI43" s="14"/>
-      <c r="BJ43" s="20"/>
-      <c r="BK43" s="69"/>
-      <c r="BL43" s="69"/>
-      <c r="BM43" s="69"/>
-      <c r="BN43" s="102"/>
-      <c r="BO43" s="100"/>
+    <row r="43" spans="1:67" ht="12" customHeight="1">
+      <c r="A43" s="164"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="77"/>
+      <c r="AK43" s="87"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="63"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="63"/>
+      <c r="AQ43" s="63"/>
+      <c r="AR43" s="63"/>
+      <c r="AS43" s="63"/>
+      <c r="AT43" s="63"/>
+      <c r="AU43" s="13"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="63"/>
+      <c r="AY43" s="63"/>
+      <c r="AZ43" s="63"/>
+      <c r="BA43" s="63"/>
+      <c r="BB43" s="13"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="63"/>
+      <c r="BE43" s="63"/>
+      <c r="BF43" s="96"/>
+      <c r="BG43" s="96"/>
+      <c r="BH43" s="96"/>
+      <c r="BI43" s="13"/>
+      <c r="BJ43" s="19"/>
+      <c r="BK43" s="64"/>
+      <c r="BL43" s="64"/>
+      <c r="BM43" s="68"/>
+      <c r="BN43" s="75"/>
+      <c r="BO43" s="97"/>
     </row>
     <row r="44" spans="1:67">
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
+      <c r="A44" s="142">
+        <v>21</v>
+      </c>
+      <c r="B44" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="137"/>
+      <c r="E44" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="140"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="65"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="86"/>
+      <c r="AL44" s="65"/>
+      <c r="AM44" s="65"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="65"/>
+      <c r="AQ44" s="65"/>
+      <c r="AR44" s="65"/>
+      <c r="AS44" s="65"/>
+      <c r="AT44" s="65"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="65"/>
+      <c r="AY44" s="65"/>
+      <c r="AZ44" s="65"/>
+      <c r="BA44" s="65"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="21"/>
+      <c r="BD44" s="65"/>
+      <c r="BE44" s="65"/>
+      <c r="BF44" s="30"/>
+      <c r="BG44" s="30"/>
+      <c r="BH44" s="30"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="107"/>
+      <c r="BL44" s="60"/>
+      <c r="BM44" s="65"/>
+      <c r="BN44" s="65"/>
+      <c r="BO44" s="97"/>
     </row>
-    <row r="45" spans="1:67">
-      <c r="A45" s="27"/>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="45" spans="1:67" ht="10.199999999999999" thickBot="1">
+      <c r="A45" s="143"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="69"/>
+      <c r="X45" s="69"/>
+      <c r="Y45" s="69"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="69"/>
+      <c r="AD45" s="69"/>
+      <c r="AE45" s="69"/>
+      <c r="AF45" s="69"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="69"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="69"/>
+      <c r="AM45" s="69"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="69"/>
+      <c r="AQ45" s="69"/>
+      <c r="AR45" s="69"/>
+      <c r="AS45" s="69"/>
+      <c r="AT45" s="69"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="20"/>
+      <c r="AW45" s="20"/>
+      <c r="AX45" s="69"/>
+      <c r="AY45" s="69"/>
+      <c r="AZ45" s="69"/>
+      <c r="BA45" s="69"/>
+      <c r="BB45" s="14"/>
+      <c r="BC45" s="20"/>
+      <c r="BD45" s="69"/>
+      <c r="BE45" s="69"/>
+      <c r="BF45" s="69"/>
+      <c r="BG45" s="69"/>
+      <c r="BH45" s="69"/>
+      <c r="BI45" s="14"/>
+      <c r="BJ45" s="20"/>
+      <c r="BK45" s="69"/>
+      <c r="BL45" s="69"/>
+      <c r="BM45" s="69"/>
+      <c r="BN45" s="99"/>
     </row>
     <row r="46" spans="1:67">
-      <c r="A46" s="28"/>
-      <c r="B46" s="1" t="s">
+      <c r="A46" s="131"/>
+    </row>
+    <row r="48" spans="1:67">
+      <c r="A48" s="27"/>
+      <c r="B48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:67">
-      <c r="A47" s="109"/>
-      <c r="B47" s="1" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="105"/>
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F36:F37"/>
+  <mergeCells count="92">
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -10129,45 +6913,57 @@
     <mergeCell ref="C22:D23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
     <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -10184,7 +6980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -10211,54 +7007,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="153" t="s">
+      <c r="D1" s="200"/>
+      <c r="E1" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="139"/>
-      <c r="X1" s="139"/>
-      <c r="Y1" s="139"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="140"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="192"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="156"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -10333,12 +7129,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="143"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="157"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="209"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -10413,20 +7209,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="158">
+      <c r="A4" s="185">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="160" t="s">
+      <c r="C4" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="233" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="216" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="166"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10449,20 +7245,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="234" t="s">
+      <c r="AC4" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="228" t="s">
+      <c r="AD4" s="211" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="159"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="167"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -10485,22 +7281,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="235"/>
-      <c r="AD5" s="229"/>
+      <c r="AC5" s="218"/>
+      <c r="AD5" s="212"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="168">
+      <c r="A6" s="142">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="231" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="181"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -10523,16 +7319,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="235"/>
-      <c r="AD6" s="229"/>
+      <c r="AC6" s="218"/>
+      <c r="AD6" s="212"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="159"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="182"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="184"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -10555,24 +7351,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="235"/>
-      <c r="AD7" s="229"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="212"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="217">
+      <c r="A8" s="220">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="C8" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="238"/>
-      <c r="E8" s="239" t="s">
+      <c r="D8" s="223"/>
+      <c r="E8" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="191"/>
+      <c r="F8" s="177"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -10595,16 +7391,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="229"/>
+      <c r="AC8" s="218"/>
+      <c r="AD8" s="212"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="218"/>
+      <c r="A9" s="221"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="211"/>
-      <c r="D9" s="212"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="193"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="180"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -10627,8 +7423,8 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="235"/>
-      <c r="AD9" s="229"/>
+      <c r="AC9" s="218"/>
+      <c r="AD9" s="212"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
       <c r="A10" s="226">
@@ -10637,14 +7433,14 @@
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="170"/>
-      <c r="E10" s="225" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="174"/>
+      <c r="F10" s="181"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -10667,16 +7463,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="235"/>
-      <c r="AD10" s="229"/>
+      <c r="AC10" s="218"/>
+      <c r="AD10" s="212"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="218"/>
+      <c r="A11" s="221"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="221"/>
-      <c r="F11" s="175"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="178"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -10699,22 +7495,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="235"/>
-      <c r="AD11" s="229"/>
+      <c r="AC11" s="218"/>
+      <c r="AD11" s="212"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="217">
+      <c r="A12" s="220">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="177"/>
-      <c r="E12" s="227" t="s">
+      <c r="D12" s="162"/>
+      <c r="E12" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="188"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -10737,16 +7533,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="235"/>
-      <c r="AD12" s="229"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="212"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
       <c r="A13" s="226"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="225"/>
-      <c r="F13" s="174"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="181"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -10769,24 +7565,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="235"/>
-      <c r="AD13" s="229"/>
+      <c r="AC13" s="218"/>
+      <c r="AD13" s="212"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="222">
+      <c r="A14" s="230">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="190"/>
-      <c r="E14" s="224" t="s">
+      <c r="D14" s="137"/>
+      <c r="E14" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="191"/>
+      <c r="F14" s="177"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -10809,16 +7605,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="235"/>
-      <c r="AD14" s="229"/>
+      <c r="AC14" s="218"/>
+      <c r="AD14" s="212"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="222"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="175"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -10841,22 +7637,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="235"/>
-      <c r="AD15" s="229"/>
+      <c r="AC15" s="218"/>
+      <c r="AD15" s="212"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="222">
+      <c r="A16" s="230">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="177"/>
-      <c r="E16" s="220" t="s">
+      <c r="D16" s="162"/>
+      <c r="E16" s="232" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="188"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -10879,16 +7675,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="235"/>
-      <c r="AD16" s="229"/>
+      <c r="AC16" s="218"/>
+      <c r="AD16" s="212"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="222"/>
+      <c r="A17" s="230"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="175"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -10911,22 +7707,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="235"/>
-      <c r="AD17" s="229"/>
+      <c r="AC17" s="218"/>
+      <c r="AD17" s="212"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="222">
+      <c r="A18" s="230">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="220" t="s">
+      <c r="D18" s="162"/>
+      <c r="E18" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="188"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10949,16 +7745,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="235"/>
-      <c r="AD18" s="229"/>
+      <c r="AC18" s="218"/>
+      <c r="AD18" s="212"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="222"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="193"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -10981,24 +7777,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="235"/>
-      <c r="AD19" s="229"/>
+      <c r="AC19" s="218"/>
+      <c r="AD19" s="212"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="217">
+      <c r="A20" s="220">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="189" t="s">
+      <c r="C20" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="190"/>
-      <c r="E20" s="224" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="191"/>
+      <c r="F20" s="177"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -11021,18 +7817,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="235"/>
-      <c r="AD20" s="229"/>
+      <c r="AC20" s="218"/>
+      <c r="AD20" s="212"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="218"/>
+      <c r="A21" s="221"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="175"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -11055,22 +7851,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="235"/>
-      <c r="AD21" s="229"/>
+      <c r="AC21" s="218"/>
+      <c r="AD21" s="212"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="217">
+      <c r="A22" s="220">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="219" t="s">
+      <c r="C22" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="220" t="s">
+      <c r="D22" s="162"/>
+      <c r="E22" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="188"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -11093,16 +7889,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="235"/>
-      <c r="AD22" s="229"/>
+      <c r="AC22" s="218"/>
+      <c r="AD22" s="212"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="218"/>
+      <c r="A23" s="221"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="175"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="178"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -11125,22 +7921,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="235"/>
-      <c r="AD23" s="229"/>
+      <c r="AC23" s="218"/>
+      <c r="AD23" s="212"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="217">
+      <c r="A24" s="220">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="219" t="s">
+      <c r="C24" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="220" t="s">
+      <c r="D24" s="162"/>
+      <c r="E24" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="188"/>
+      <c r="F24" s="179"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -11163,16 +7959,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="235"/>
-      <c r="AD24" s="229"/>
+      <c r="AC24" s="218"/>
+      <c r="AD24" s="212"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="218"/>
+      <c r="A25" s="221"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="193"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="180"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -11195,24 +7991,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="235"/>
-      <c r="AD25" s="229"/>
+      <c r="AC25" s="218"/>
+      <c r="AD25" s="212"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="168">
+      <c r="A26" s="142">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="215" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="198"/>
+      <c r="F26" s="170"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -11235,16 +8031,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="235"/>
-      <c r="AD26" s="229"/>
+      <c r="AC26" s="218"/>
+      <c r="AD26" s="212"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="159"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="196"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="199"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="171"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -11267,24 +8063,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="235"/>
-      <c r="AD27" s="229"/>
+      <c r="AC27" s="218"/>
+      <c r="AD27" s="212"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="168">
+      <c r="A28" s="142">
         <v>14</v>
       </c>
-      <c r="B28" s="203" t="s">
+      <c r="B28" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="190"/>
-      <c r="E28" s="203" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="208"/>
+      <c r="F28" s="140"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -11307,16 +8103,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="235"/>
-      <c r="AD28" s="229"/>
+      <c r="AC28" s="218"/>
+      <c r="AD28" s="212"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="202"/>
-      <c r="B29" s="204"/>
-      <c r="C29" s="205"/>
-      <c r="D29" s="206"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="209"/>
+      <c r="A29" s="236"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -11339,8 +8135,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="236"/>
-      <c r="AD29" s="230"/>
+      <c r="AC29" s="219"/>
+      <c r="AD29" s="213"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -11360,12 +8156,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -11382,45 +8211,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
